--- a/docs/因子/现货因子(2).xlsx
+++ b/docs/因子/现货因子(2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,312 +605,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="68.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="68.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="2:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>42</v>
       </c>
     </row>
